--- a/doc/ue_commandlet.xlsx
+++ b/doc/ue_commandlet.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF25FC8-BA33-4AC7-BBC2-5913E2286172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="执行流程" sheetId="2" r:id="rId2"/>
+    <sheet name="与Engine的关系" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +21,197 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+  <si>
+    <t>根据传入的参数，找到对应的commandlet类，然后直接其Main函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如参数为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Token.StartsWith(TEXT("run=")))</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Token.RightChopInline(4, false);</t>
+  </si>
+  <si>
+    <t>if (!Token.EndsWith(TEXT("Commandlet")))</t>
+  </si>
+  <si>
+    <t>Token += TEXT("Commandlet");</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>run=Cook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个时候变成了CookCommandlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个就是类名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据传入的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到对应的commandlet名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过commandlet名字找到对应的CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UClass* CommandletClass = nullptr;</t>
+  </si>
+  <si>
+    <t>CommandletClass = FindObject&lt;UClass&gt;(ANY_PACKAGE,*Token,false);</t>
+  </si>
+  <si>
+    <t>Debug下的初始化执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 WINAPI WinMain(_In_ HINSTANCE hInInstance, _In_opt_ HINSTANCE hPrevInstance, _In_ char* pCmdLine, _In_ int32 nCmdShow)</t>
+  </si>
+  <si>
+    <t>LAUNCH_API int32 LaunchWindowsStartup( HINSTANCE hInInstance, HINSTANCE hPrevInstance, char*, int32 nCmdShow, const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>ErrorLevel = GuardedMain( CmdLine );</t>
+  </si>
+  <si>
+    <t>int32 GuardedMain( const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = EnginePreInit( CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 EnginePreInit( const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = GEngineLoop.PreInit( CmdLine );</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInit(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>const int32 rv2 = PreInitPostStartupScreen(CmdLine);</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPostStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = Commandlet-&gt;Main( CommandletCommandLine );</t>
+  </si>
+  <si>
+    <t>UCommandlet* Commandlet = NewObject&lt;UCommandlet&gt;(GetTransientPackage(), CommandletClass);</t>
+  </si>
+  <si>
+    <t>Commandlet-&gt;AddToRoot();</t>
+  </si>
+  <si>
+    <t>Commandlet-&gt;ParseParms( CommandletCommandLine );</t>
+  </si>
+  <si>
+    <t>创建对应的commandlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动的时候判断是否有commandlet参数，没有就正常启动编辑器，否则运行commandlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完之后就退出了，不会继续走init-&gt;tick了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先创建Commandlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEngine = GEditor = NewObject&lt;UEditorEngine&gt;(GetTransientPackage(), EditorEngineClass);</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;ParseCommandline();</t>
+  </si>
+  <si>
+    <t>GEditor-&gt;InitEditor(this);</t>
+  </si>
+  <si>
+    <t>这个里面就会涉及到EngineSubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建commandlet并执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine和Commandlet之间的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +518,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B979FCF-05FA-413E-A972-E5ED5ECCA6DE}">
+  <dimension ref="B6:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC11E198-8C03-418F-87D4-785CF4532AE9}">
+  <dimension ref="B3:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>